--- a/DDAf_2023_Tableau_annexe_Tab02.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -2203,7 +2203,7 @@
         <v>2.2596259090798401</v>
       </c>
       <c r="I8" s="19">
-        <v>11.2023897737184</v>
+        <v>11.2022897737184</v>
       </c>
       <c r="J8" s="19">
         <v>11.300844889665299</v>
@@ -4882,7 +4882,7 @@
         <v>2.30038693437014</v>
       </c>
       <c r="AA29" s="19">
-        <v>3.3392023439420599</v>
+        <v>3.3392022439420601</v>
       </c>
       <c r="AB29" s="19">
         <v>3.1322958882869201</v>
@@ -6495,7 +6495,7 @@
         <v>9.7875895252099998E-2</v>
       </c>
       <c r="W42" s="12">
-        <v>2.6202394990734099</v>
+        <v>2.6202294990734099</v>
       </c>
       <c r="X42" s="12">
         <v>4.1727832866067498</v>
@@ -9801,7 +9801,7 @@
         <v>0.9377173179528</v>
       </c>
       <c r="F69" s="39">
-        <v>0.77643322920235003</v>
+        <v>0.77643322920225</v>
       </c>
       <c r="G69" s="39">
         <v>1.9098506652354601</v>
@@ -10977,7 +10977,7 @@
         <v>2.4910097211595401</v>
       </c>
       <c r="AC78" s="39">
-        <v>2.0872023928591399</v>
+        <v>2.0872022928591401</v>
       </c>
       <c r="AD78" s="39">
         <v>3.0038600739902201</v>
@@ -12300,7 +12300,7 @@
         <v>7.6270465341108702</v>
       </c>
       <c r="S89" s="39">
-        <v>8.8976969566912096</v>
+        <v>8.8976969566912203</v>
       </c>
       <c r="T89" s="39">
         <v>9.6229948524451991</v>
@@ -12333,7 +12333,7 @@
         <v>4.1514298647808001</v>
       </c>
       <c r="AD89" s="39">
-        <v>5.03529910089431</v>
+        <v>5.0352991008943002</v>
       </c>
       <c r="AE89" s="39">
         <v>4.7729264643125102</v>
@@ -12702,7 +12702,7 @@
         <v>5.2524360740461198</v>
       </c>
       <c r="AD92" s="39">
-        <v>6.1319805220236203</v>
+        <v>6.1319805220226202</v>
       </c>
       <c r="AE92" s="39">
         <v>6.6541681362757004</v>
@@ -13146,7 +13146,7 @@
         <v>6.0858998539886899</v>
       </c>
       <c r="N96" s="42">
-        <v>7.6496020234683604</v>
+        <v>7.6496020224683603</v>
       </c>
       <c r="O96" s="42">
         <v>6.5563602483503702</v>

--- a/DDAf_2023_Tableau_annexe_Tab02.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E062198-3317-4A59-BC6A-3F6A5A189893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0613151-D209-45D4-892C-2B2DA40EBB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29370" yWindow="570" windowWidth="17280" windowHeight="15075" xr2:uid="{A72D41B4-8F47-4D16-93A1-BFB75D1E1D9A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2EDEB257-FED7-4D62-8183-D2301917443A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab02'!$B$1:$B$105</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab02'!$A$1:$AL$104</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="200">
   <si>
     <t>Tableau 2 : Taux de croissance annuel du PIB réel, 1990-2028</t>
   </si>
@@ -345,7 +345,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -423,7 +423,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -477,7 +477,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -618,7 +618,10 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Jusqu'à 2021 les chiffres sont des estimations. A partir de 2022 il s'agit de projections.</t>
+    <t>Jusqu'à 2022 les chiffres sont des estimations. A partir de 2023 il s'agit de projections.</t>
+  </si>
+  <si>
+    <t>Source : Base de données des Perspectives de l'économie mondiale du FMI, avril 2023.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1391,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D73BCDC-8DBF-4E6B-9275-B11299A60199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F803340-590D-4BC7-BA61-B18C94AA68F6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5553,127 +5556,127 @@
       <c r="A34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M34" s="14" t="s">
+      <c r="M34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="P34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="Q34" s="14" t="s">
+      <c r="Q34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="R34" s="14" t="s">
+      <c r="R34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="S34" s="14" t="s">
+      <c r="S34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="T34" s="14" t="s">
+      <c r="T34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="U34" s="14" t="s">
+      <c r="U34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="V34" s="14" t="s">
+      <c r="V34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="W34" s="14" t="s">
+      <c r="W34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="X34" s="14" t="s">
+      <c r="X34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="Y34" s="14">
+      <c r="Y34" s="24">
         <v>-50.319060542728998</v>
       </c>
-      <c r="Z34" s="14">
+      <c r="Z34" s="24">
         <v>27.272138663623199</v>
       </c>
-      <c r="AA34" s="14">
+      <c r="AA34" s="24">
         <v>1.5556498390162601</v>
       </c>
-      <c r="AB34" s="14">
+      <c r="AB34" s="24">
         <v>-0.2312244038472</v>
       </c>
-      <c r="AC34" s="14">
+      <c r="AC34" s="24">
         <v>-13.298768786125001</v>
       </c>
-      <c r="AD34" s="14">
+      <c r="AD34" s="24">
         <v>-5.7935154617061002</v>
       </c>
-      <c r="AE34" s="14">
+      <c r="AE34" s="24">
         <v>-2.1492710823252001</v>
       </c>
-      <c r="AF34" s="14">
+      <c r="AF34" s="24">
         <v>0.85635291055795004</v>
       </c>
-      <c r="AG34" s="14">
+      <c r="AG34" s="24">
         <v>-6.4937270528084001</v>
       </c>
-      <c r="AH34" s="14">
+      <c r="AH34" s="24">
         <v>5.32918198855144</v>
       </c>
-      <c r="AI34" s="14">
+      <c r="AI34" s="24">
         <v>6.5518204300205598</v>
       </c>
-      <c r="AJ34" s="14">
+      <c r="AJ34" s="24">
         <v>5.6254403445607002</v>
       </c>
-      <c r="AK34" s="14">
+      <c r="AK34" s="24">
         <v>4.6439909166080797</v>
       </c>
-      <c r="AL34" s="14">
+      <c r="AL34" s="24">
         <v>4.58554249559577</v>
       </c>
-      <c r="AM34" s="14">
+      <c r="AM34" s="24">
         <v>4.4338625125164501</v>
       </c>
-      <c r="AN34" s="14">
+      <c r="AN34" s="24">
         <v>4.43892499477783</v>
       </c>
-      <c r="AO34" s="14">
+      <c r="AO34" s="24">
         <v>4.4439691614657697</v>
       </c>
-      <c r="AP34" s="15">
+      <c r="AP34" s="25">
         <v>4.5092208382091501</v>
       </c>
     </row>
@@ -8497,127 +8500,127 @@
       <c r="A57" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="17">
         <v>-0.55202975792999998</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="17">
         <v>2.1934928740304098</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="17">
         <v>1.5688069517474399</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="17">
         <v>0.25657470553386003</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="17">
         <v>1.87234845974806</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="17">
         <v>4.05203392503015</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="17">
         <v>2.8859156316492198</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="17">
         <v>2.4956015342762798</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="17">
         <v>0.52184442114773</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="17">
         <v>5.5184997086863401</v>
       </c>
-      <c r="N57" s="24">
+      <c r="N57" s="17">
         <v>6.6668481966584201</v>
       </c>
-      <c r="O57" s="24">
+      <c r="O57" s="17">
         <v>14.6043814514254</v>
       </c>
-      <c r="P57" s="24">
+      <c r="P57" s="17">
         <v>9.50260613561551</v>
       </c>
-      <c r="Q57" s="24">
+      <c r="Q57" s="17">
         <v>10.4420037639767</v>
       </c>
-      <c r="R57" s="24">
+      <c r="R57" s="17">
         <v>7.0084568759708299</v>
       </c>
-      <c r="S57" s="24">
+      <c r="S57" s="17">
         <v>6.7259741413882699</v>
       </c>
-      <c r="T57" s="24">
+      <c r="T57" s="17">
         <v>7.3180809016697497</v>
       </c>
-      <c r="U57" s="24">
+      <c r="U57" s="17">
         <v>7.19928710672409</v>
       </c>
-      <c r="V57" s="24">
+      <c r="V57" s="17">
         <v>8.3533441806096302</v>
       </c>
-      <c r="W57" s="24">
+      <c r="W57" s="17">
         <v>11.258906580302</v>
       </c>
-      <c r="X57" s="24">
+      <c r="X57" s="17">
         <v>4.8873880184070702</v>
       </c>
-      <c r="Y57" s="24">
+      <c r="Y57" s="17">
         <v>4.27927739751033</v>
       </c>
-      <c r="Z57" s="24">
+      <c r="Z57" s="17">
         <v>5.3944168546103102</v>
       </c>
-      <c r="AA57" s="24">
+      <c r="AA57" s="17">
         <v>6.3097171464242798</v>
       </c>
-      <c r="AB57" s="24">
+      <c r="AB57" s="17">
         <v>2.6526925209434502</v>
       </c>
-      <c r="AC57" s="24">
+      <c r="AC57" s="17">
         <v>-1.6168682910373999</v>
       </c>
-      <c r="AD57" s="24">
+      <c r="AD57" s="17">
         <v>0.80588697345361004</v>
       </c>
-      <c r="AE57" s="24">
+      <c r="AE57" s="17">
         <v>1.9227571572501201</v>
       </c>
-      <c r="AF57" s="24">
+      <c r="AF57" s="17">
         <v>2.2084297087015701</v>
       </c>
-      <c r="AG57" s="24">
+      <c r="AG57" s="17">
         <v>-1.7942535995732001</v>
       </c>
-      <c r="AH57" s="24">
+      <c r="AH57" s="17">
         <v>3.6471865038370899</v>
       </c>
-      <c r="AI57" s="24">
+      <c r="AI57" s="17">
         <v>3.2516814576655002</v>
       </c>
-      <c r="AJ57" s="24">
+      <c r="AJ57" s="17">
         <v>3.2315699544530001</v>
       </c>
-      <c r="AK57" s="24">
+      <c r="AK57" s="17">
         <v>3.0087110903207299</v>
       </c>
-      <c r="AL57" s="24">
+      <c r="AL57" s="17">
         <v>2.9673710818105601</v>
       </c>
-      <c r="AM57" s="24">
+      <c r="AM57" s="17">
         <v>2.9902037174678102</v>
       </c>
-      <c r="AN57" s="24">
+      <c r="AN57" s="17">
         <v>2.9752975697125299</v>
       </c>
-      <c r="AO57" s="24">
+      <c r="AO57" s="17">
         <v>2.98677680136332</v>
       </c>
-      <c r="AP57" s="25">
+      <c r="AP57" s="18">
         <v>2.9856710859071001</v>
       </c>
     </row>
@@ -9677,7 +9680,7 @@
         <v>2.4923402509594599</v>
       </c>
       <c r="O66" s="39">
-        <v>2.8668090063637601</v>
+        <v>2.8668090063637499</v>
       </c>
       <c r="P66" s="39">
         <v>4.26822880623196</v>
@@ -9740,7 +9743,7 @@
         <v>3.4628579213567101</v>
       </c>
       <c r="AJ66" s="39">
-        <v>2.8129683814889499</v>
+        <v>2.8129683814889401</v>
       </c>
       <c r="AK66" s="39">
         <v>3.01480553067409</v>
@@ -9932,7 +9935,7 @@
         <v>5.3296044139272603</v>
       </c>
       <c r="P68" s="36">
-        <v>6.4957053632020996</v>
+        <v>6.4957053632020898</v>
       </c>
       <c r="Q68" s="36">
         <v>6.1709987363541003</v>
@@ -10019,124 +10022,124 @@
         <v>161</v>
       </c>
       <c r="C69" s="36">
-        <v>5.1005458032749198</v>
+        <v>1.9393753164187499</v>
       </c>
       <c r="D69" s="36">
-        <v>1.52381444113089</v>
+        <v>-0.97872303315039999</v>
       </c>
       <c r="E69" s="36">
-        <v>0.93771730733918002</v>
+        <v>-1.6761164416089001</v>
       </c>
       <c r="F69" s="36">
-        <v>0.77643322321676</v>
+        <v>-2.1252105586357999</v>
       </c>
       <c r="G69" s="36">
-        <v>1.9098506694427799</v>
+        <v>0.36362664761303998</v>
       </c>
       <c r="H69" s="36">
-        <v>5.2382925252367096</v>
+        <v>4.7713893889096797</v>
       </c>
       <c r="I69" s="36">
-        <v>4.8029460998136404</v>
+        <v>3.5988358512194401</v>
       </c>
       <c r="J69" s="36">
-        <v>2.6021851191386198</v>
+        <v>0.89381773412789001</v>
       </c>
       <c r="K69" s="36">
-        <v>4.0383951632831199</v>
+        <v>2.8269358685208998</v>
       </c>
       <c r="L69" s="36">
-        <v>4.1456823399497003</v>
+        <v>3.00804448960085</v>
       </c>
       <c r="M69" s="36">
-        <v>2.7494064688787598</v>
+        <v>1.3343455935284501</v>
       </c>
       <c r="N69" s="36">
-        <v>5.7114129935441396</v>
+        <v>4.7615471401552698</v>
       </c>
       <c r="O69" s="36">
-        <v>4.4804912855699301</v>
+        <v>4.2963222080505297</v>
       </c>
       <c r="P69" s="36">
-        <v>4.81325192853435</v>
+        <v>5.0352472918301796</v>
       </c>
       <c r="Q69" s="36">
-        <v>5.97106551365904</v>
+        <v>6.1801702749040297</v>
       </c>
       <c r="R69" s="36">
-        <v>7.3134802826152203</v>
+        <v>7.6279549661253903</v>
       </c>
       <c r="S69" s="36">
-        <v>5.9065553594705804</v>
+        <v>5.8064818365040303</v>
       </c>
       <c r="T69" s="36">
-        <v>7.5919918646257996</v>
+        <v>7.71057565221055</v>
       </c>
       <c r="U69" s="36">
-        <v>4.97623886889434</v>
+        <v>5.2895020638584196</v>
       </c>
       <c r="V69" s="36">
-        <v>5.2939046754427102</v>
+        <v>4.7070661467336699</v>
       </c>
       <c r="W69" s="36">
-        <v>7.3029072735384899</v>
+        <v>7.3702368242450698</v>
       </c>
       <c r="X69" s="36">
-        <v>6.7447697046087196</v>
+        <v>6.8513009454532199</v>
       </c>
       <c r="Y69" s="36">
-        <v>2.0309055188766099</v>
+        <v>2.8523847178526198</v>
       </c>
       <c r="Z69" s="36">
-        <v>5.8655315496930998</v>
+        <v>6.3752107719339097</v>
       </c>
       <c r="AA69" s="36">
-        <v>5.5378748893916097</v>
+        <v>5.7944222175659599</v>
       </c>
       <c r="AB69" s="36">
-        <v>5.7119978349337499</v>
+        <v>5.8070869661126103</v>
       </c>
       <c r="AC69" s="36">
-        <v>3.7780139794131902</v>
+        <v>3.2706303248280499</v>
       </c>
       <c r="AD69" s="36">
-        <v>5.0587585651177802</v>
+        <v>4.8356193561085599</v>
       </c>
       <c r="AE69" s="36">
-        <v>5.99968409956361</v>
+        <v>5.8143099733358596</v>
       </c>
       <c r="AF69" s="36">
-        <v>6.2970462935542901</v>
+        <v>6.0150984639902196</v>
       </c>
       <c r="AG69" s="36">
-        <v>0.86147796229192997</v>
+        <v>0.98839960816532002</v>
       </c>
       <c r="AH69" s="36">
-        <v>6.5619510723797196</v>
+        <v>6.50983868671449</v>
       </c>
       <c r="AI69" s="36">
-        <v>5.1199131023277404</v>
+        <v>5.3583981101594702</v>
       </c>
       <c r="AJ69" s="36">
-        <v>5.3622348741888599</v>
+        <v>5.5153010489488903</v>
       </c>
       <c r="AK69" s="36">
-        <v>5.8245423284372198</v>
+        <v>5.9301198313503001</v>
       </c>
       <c r="AL69" s="36">
-        <v>6.2446416713180497</v>
+        <v>6.33043971876491</v>
       </c>
       <c r="AM69" s="36">
-        <v>6.2063078546649599</v>
+        <v>6.32816969831776</v>
       </c>
       <c r="AN69" s="36">
-        <v>6.2339598227305002</v>
+        <v>6.3086421012314498</v>
       </c>
       <c r="AO69" s="36">
-        <v>6.1854456749726499</v>
+        <v>6.2337238599191602</v>
       </c>
       <c r="AP69" s="37">
-        <v>6.1388608250312098</v>
+        <v>6.2261099102354702</v>
       </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.35">
@@ -10499,7 +10502,7 @@
         <v>4.78247573674739</v>
       </c>
       <c r="AK72" s="36">
-        <v>5.2443886367369297</v>
+        <v>5.2443886367369199</v>
       </c>
       <c r="AL72" s="36">
         <v>5.6249081805888999</v>
@@ -11027,109 +11030,109 @@
         <v>168</v>
       </c>
       <c r="C77" s="36">
-        <v>-1.2616452849674</v>
+        <v>-2.1359082904693998</v>
       </c>
       <c r="D77" s="36">
-        <v>3.87501923194846</v>
+        <v>3.1698877813373998</v>
       </c>
       <c r="E77" s="36">
-        <v>3.0398952158790702</v>
+        <v>2.6634066848897402</v>
       </c>
       <c r="F77" s="36">
-        <v>4.53869960348469</v>
+        <v>5.0460128826323203</v>
       </c>
       <c r="G77" s="36">
-        <v>4.8806953595740596</v>
+        <v>5.6758682733754604</v>
       </c>
       <c r="H77" s="36">
-        <v>3.7200041145140199</v>
+        <v>3.694444294508</v>
       </c>
       <c r="I77" s="36">
-        <v>2.6582984463614299</v>
+        <v>2.96388659846532</v>
       </c>
       <c r="J77" s="36">
-        <v>4.7974853860644497</v>
+        <v>4.6262718146593702</v>
       </c>
       <c r="K77" s="36">
-        <v>1.2264502938276001</v>
+        <v>1.3268955891802201</v>
       </c>
       <c r="L77" s="36">
-        <v>-1.2766251071507999</v>
+        <v>-0.79714510116610005</v>
       </c>
       <c r="M77" s="36">
-        <v>3.1614819176799802</v>
+        <v>3.1074808411489001</v>
       </c>
       <c r="N77" s="36">
-        <v>0.89093647492494998</v>
+        <v>0.62645831499930005</v>
       </c>
       <c r="O77" s="36">
-        <v>0.29992786610416</v>
+        <v>1.17357023143029</v>
       </c>
       <c r="P77" s="36">
-        <v>2.1412729320473902</v>
+        <v>2.98768159102202</v>
       </c>
       <c r="Q77" s="36">
-        <v>7.2553473254613401</v>
+        <v>6.2044183532317199</v>
       </c>
       <c r="R77" s="36">
-        <v>5.1191077348678302</v>
+        <v>4.5965358412975901</v>
       </c>
       <c r="S77" s="36">
-        <v>5.6621812355341499</v>
+        <v>5.2201897664279997</v>
       </c>
       <c r="T77" s="36">
-        <v>6.7492655714611898</v>
+        <v>6.5344180281070896</v>
       </c>
       <c r="U77" s="36">
-        <v>5.0049584065743904</v>
+        <v>4.9756175257829698</v>
       </c>
       <c r="V77" s="36">
-        <v>-0.9526430365595</v>
+        <v>-0.7166924274141</v>
       </c>
       <c r="W77" s="36">
-        <v>6.66454093922792</v>
+        <v>7.4487503558366601</v>
       </c>
       <c r="X77" s="36">
-        <v>4.9340127171839097</v>
+        <v>5.0063137858785396</v>
       </c>
       <c r="Y77" s="36">
-        <v>2.6561703388584501</v>
+        <v>2.3584078786129199</v>
       </c>
       <c r="Z77" s="36">
-        <v>3.3246403410336498</v>
+        <v>3.5195254366331499</v>
       </c>
       <c r="AA77" s="36">
-        <v>0.54808149458615996</v>
+        <v>0.96679799313604997</v>
       </c>
       <c r="AB77" s="36">
-        <v>-1.1320447311821999</v>
+        <v>-0.66699187965499995</v>
       </c>
       <c r="AC77" s="36">
-        <v>-2.3831125478008</v>
+        <v>-1.2658904750721001</v>
       </c>
       <c r="AD77" s="36">
-        <v>0.78399225052518995</v>
+        <v>1.8007786905401</v>
       </c>
       <c r="AE77" s="36">
-        <v>0.51255154190001995</v>
+        <v>1.49939776541347</v>
       </c>
       <c r="AF77" s="36">
-        <v>-4.3635545137500002E-2</v>
+        <v>0.92538201104216</v>
       </c>
       <c r="AG77" s="36">
-        <v>-6.2188093836435998</v>
+        <v>-5.5994775834585004</v>
       </c>
       <c r="AH77" s="36">
-        <v>7.4975057224951103</v>
+        <v>7.6688407074014</v>
       </c>
       <c r="AI77" s="36">
-        <v>4.14836679548565</v>
+        <v>4.0522489200520804</v>
       </c>
       <c r="AJ77" s="36">
-        <v>1.2270249586306801</v>
+        <v>1.12741186368094</v>
       </c>
       <c r="AK77" s="36">
-        <v>2.2822219454214299</v>
+        <v>2.2225496935337001</v>
       </c>
       <c r="AL77" s="36">
         <v>2.2290512463679799</v>
@@ -11144,7 +11147,7 @@
         <v>2.3578092658842702</v>
       </c>
       <c r="AP77" s="37">
-        <v>2.3827195037159798</v>
+        <v>2.3707705383518398</v>
       </c>
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.35">
@@ -11408,121 +11411,121 @@
         <v>1.6081279450301</v>
       </c>
       <c r="D80" s="42">
-        <v>4.2134606338846101</v>
+        <v>6.61456906932675</v>
       </c>
       <c r="E80" s="42">
-        <v>0.95642310217904003</v>
+        <v>0.32034852168644001</v>
       </c>
       <c r="F80" s="42">
-        <v>-0.48117149217150001</v>
+        <v>-1.5709404409645999</v>
       </c>
       <c r="G80" s="42">
-        <v>1.1457041334562199</v>
+        <v>1.6125869930502701</v>
       </c>
       <c r="H80" s="42">
-        <v>0.37686403764635001</v>
+        <v>-0.43417984110919999</v>
       </c>
       <c r="I80" s="42">
-        <v>4.11314957003444</v>
+        <v>4.1462929812328104</v>
       </c>
       <c r="J80" s="42">
-        <v>2.0666517273837299</v>
+        <v>1.61475228937654</v>
       </c>
       <c r="K80" s="42">
-        <v>3.3535420653546799</v>
+        <v>3.8211115418943402</v>
       </c>
       <c r="L80" s="42">
-        <v>1.34126821961514</v>
+        <v>1.7827896253639099</v>
       </c>
       <c r="M80" s="42">
-        <v>5.15813752373559</v>
+        <v>4.9615696239548601</v>
       </c>
       <c r="N80" s="42">
-        <v>4.9737440531241202</v>
+        <v>4.0228097065885304</v>
       </c>
       <c r="O80" s="42">
-        <v>8.4251636408366792</v>
+        <v>4.6121012716809604</v>
       </c>
       <c r="P80" s="42">
-        <v>9.0124010601919107</v>
+        <v>8.7071323138824308</v>
       </c>
       <c r="Q80" s="42">
-        <v>8.1480337319912799</v>
+        <v>6.6645619896377504</v>
       </c>
       <c r="R80" s="42">
-        <v>7.7455697212571897</v>
+        <v>8.2174165766427105</v>
       </c>
       <c r="S80" s="42">
-        <v>4.6319572589422897</v>
+        <v>3.2440240907526201</v>
       </c>
       <c r="T80" s="42">
-        <v>6.4207141190534198</v>
+        <v>5.8164111955840099</v>
       </c>
       <c r="U80" s="42">
-        <v>5.2329085952933303</v>
+        <v>3.8636723130527502</v>
       </c>
       <c r="V80" s="42">
-        <v>3.81278608041527</v>
+        <v>0.39751928247315998</v>
       </c>
       <c r="W80" s="42">
-        <v>7.3082904644063502</v>
+        <v>4.1305002133057904</v>
       </c>
       <c r="X80" s="42">
-        <v>0.87579286329814998</v>
+        <v>-2.8019492357911999</v>
       </c>
       <c r="Y80" s="42">
-        <v>12.5057549492962</v>
+        <v>18.435875573636501</v>
       </c>
       <c r="Z80" s="42">
-        <v>2.56058398463944</v>
+        <v>0.44169811789740998</v>
       </c>
       <c r="AA80" s="42">
-        <v>3.4430348559538602</v>
+        <v>0.64886460496241005</v>
       </c>
       <c r="AB80" s="42">
-        <v>2.2655186306319899</v>
+        <v>1.82600826083538</v>
       </c>
       <c r="AC80" s="42">
-        <v>-0.66068176725149996</v>
+        <v>0.18572876061099</v>
       </c>
       <c r="AD80" s="42">
-        <v>3.1977733718993102</v>
+        <v>5.5468650846117296</v>
       </c>
       <c r="AE80" s="42">
-        <v>1.77067890285064</v>
+        <v>1.5951875922384899</v>
       </c>
       <c r="AF80" s="42">
-        <v>0.60235985757846</v>
+        <v>-1.0734457753874</v>
       </c>
       <c r="AG80" s="42">
-        <v>-4.6089026558407999</v>
+        <v>-7.7794369245453998</v>
       </c>
       <c r="AH80" s="42">
-        <v>4.7815438225206899</v>
+        <v>6.0373678828605897</v>
       </c>
       <c r="AI80" s="42">
-        <v>2.2071400290448899</v>
+        <v>1.05216922765319</v>
       </c>
       <c r="AJ80" s="42">
-        <v>4.0144809266369403</v>
+        <v>4.89843873495672</v>
       </c>
       <c r="AK80" s="42">
-        <v>3.2813746880444499</v>
+        <v>3.5928521588085198</v>
       </c>
       <c r="AL80" s="42">
-        <v>3.1896620964600602</v>
+        <v>3.4445327586067802</v>
       </c>
       <c r="AM80" s="42">
-        <v>3.0380408275034698</v>
+        <v>3.1000118871821098</v>
       </c>
       <c r="AN80" s="42">
-        <v>2.9707928129092198</v>
+        <v>2.9755277141304801</v>
       </c>
       <c r="AO80" s="42">
-        <v>2.99557218061135</v>
+        <v>3.0150114449173899</v>
       </c>
       <c r="AP80" s="43">
-        <v>3.0950184626453701</v>
+        <v>3.2252914821998302</v>
       </c>
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.35">
@@ -11660,121 +11663,121 @@
         <v>1.64559981057723</v>
       </c>
       <c r="D82" s="36">
-        <v>1.2769385166123099</v>
+        <v>0.99910543479063996</v>
       </c>
       <c r="E82" s="36">
-        <v>-0.29502580353239999</v>
+        <v>9.1402869346929996E-2</v>
       </c>
       <c r="F82" s="36">
-        <v>1.57849136067991</v>
+        <v>1.57698795442486</v>
       </c>
       <c r="G82" s="36">
-        <v>3.2331895801705199</v>
+        <v>2.7816081283845602</v>
       </c>
       <c r="H82" s="36">
-        <v>3.6813623152840802</v>
+        <v>3.4107093121467602</v>
       </c>
       <c r="I82" s="36">
-        <v>5.4254476565578402</v>
+        <v>5.2220547234419898</v>
       </c>
       <c r="J82" s="36">
-        <v>3.7440039758196302</v>
+        <v>3.6177278798426</v>
       </c>
       <c r="K82" s="36">
-        <v>4.2676841477790601</v>
+        <v>4.0104367911369403</v>
       </c>
       <c r="L82" s="36">
-        <v>3.91095325833217</v>
+        <v>3.4407943335106701</v>
       </c>
       <c r="M82" s="36">
-        <v>3.8473422060370401</v>
+        <v>4.0825525696087404</v>
       </c>
       <c r="N82" s="36">
-        <v>4.2783537187300702</v>
+        <v>4.6208713484935</v>
       </c>
       <c r="O82" s="36">
-        <v>3.2071138086688702</v>
+        <v>4.9950845833975297</v>
       </c>
       <c r="P82" s="36">
-        <v>3.6646345433207301</v>
+        <v>4.6244951782282699</v>
       </c>
       <c r="Q82" s="36">
-        <v>4.66099840826588</v>
+        <v>5.6552839874768397</v>
       </c>
       <c r="R82" s="36">
-        <v>4.9360617222433003</v>
+        <v>5.2984650014137697</v>
       </c>
       <c r="S82" s="36">
-        <v>5.9789562045557396</v>
+        <v>6.1103811798821903</v>
       </c>
       <c r="T82" s="36">
-        <v>5.9361329745797198</v>
+        <v>6.1819471031345001</v>
       </c>
       <c r="U82" s="36">
-        <v>5.2178731523348398</v>
+        <v>5.5760331093116804</v>
       </c>
       <c r="V82" s="36">
-        <v>2.6166000906441198</v>
+        <v>3.7017885929060701</v>
       </c>
       <c r="W82" s="36">
-        <v>5.0424593819856796</v>
+        <v>6.2747128475676899</v>
       </c>
       <c r="X82" s="36">
-        <v>3.6045961064428602</v>
+        <v>3.86169373635685</v>
       </c>
       <c r="Y82" s="36">
-        <v>2.82152239579269</v>
+        <v>3.2882191153399698</v>
       </c>
       <c r="Z82" s="36">
-        <v>4.2506694146490602</v>
+        <v>4.3884591404667201</v>
       </c>
       <c r="AA82" s="36">
-        <v>3.9511775437147301</v>
+        <v>4.44482543161077</v>
       </c>
       <c r="AB82" s="36">
-        <v>4.0039464531520901</v>
+        <v>3.7497537650185402</v>
       </c>
       <c r="AC82" s="36">
-        <v>3.4727907318691602</v>
+        <v>2.53771775209644</v>
       </c>
       <c r="AD82" s="36">
-        <v>3.6037042669680202</v>
+        <v>3.0844056745849602</v>
       </c>
       <c r="AE82" s="36">
-        <v>4.1438435319483702</v>
+        <v>3.7370675942473102</v>
       </c>
       <c r="AF82" s="36">
-        <v>4.0427464316846198</v>
+        <v>3.7093057395733302</v>
       </c>
       <c r="AG82" s="36">
-        <v>-0.53896864432830005</v>
+        <v>-0.7617099026584</v>
       </c>
       <c r="AH82" s="36">
-        <v>4.8818420008640597</v>
+        <v>4.6588314940865603</v>
       </c>
       <c r="AI82" s="36">
-        <v>4.4186584567600402</v>
+        <v>4.2080076517215304</v>
       </c>
       <c r="AJ82" s="36">
-        <v>3.5317472335707398</v>
+        <v>3.47610628664758</v>
       </c>
       <c r="AK82" s="36">
-        <v>4.5613278498011001</v>
+        <v>4.2876577114590502</v>
       </c>
       <c r="AL82" s="36">
-        <v>4.7025113508270602</v>
+        <v>4.4009988653253398</v>
       </c>
       <c r="AM82" s="36">
-        <v>4.8004107360442196</v>
+        <v>4.4905310554437303</v>
       </c>
       <c r="AN82" s="36">
-        <v>4.9583525315010197</v>
+        <v>4.6242367676830103</v>
       </c>
       <c r="AO82" s="36">
-        <v>5.0354377500002299</v>
+        <v>4.6958418919095397</v>
       </c>
       <c r="AP82" s="37">
-        <v>4.8114684425805399</v>
+        <v>4.4997491665564198</v>
       </c>
     </row>
     <row r="83" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11783,7 +11786,7 @@
         <v>173</v>
       </c>
       <c r="C83" s="39">
-        <v>2.9989898353306099</v>
+        <v>2.9989898353306002</v>
       </c>
       <c r="D83" s="39">
         <v>2.1114844673680202</v>
@@ -11852,7 +11855,7 @@
         <v>3.3307212245430202</v>
       </c>
       <c r="Z83" s="39">
-        <v>3.5061836559561401</v>
+        <v>3.5061836559561499</v>
       </c>
       <c r="AA83" s="39">
         <v>3.6667429884614</v>
@@ -11909,124 +11912,124 @@
         <v>174</v>
       </c>
       <c r="C84" s="42">
-        <v>1.14371972028169</v>
+        <v>1.0248953995075101</v>
       </c>
       <c r="D84" s="42">
-        <v>0.53468259049841005</v>
+        <v>0.45237935137479002</v>
       </c>
       <c r="E84" s="42">
-        <v>-0.75967536160390003</v>
+        <v>-0.56113877480819996</v>
       </c>
       <c r="F84" s="42">
-        <v>1.6490486422044099</v>
+        <v>1.52937038160437</v>
       </c>
       <c r="G84" s="42">
-        <v>1.90405944714932</v>
+        <v>0.99192846415730995</v>
       </c>
       <c r="H84" s="42">
-        <v>6.1432765588348897</v>
+        <v>5.9538339828941398</v>
       </c>
       <c r="I84" s="42">
-        <v>4.9579545574715302</v>
+        <v>5.0326315683578198</v>
       </c>
       <c r="J84" s="42">
-        <v>3.7353031449328098</v>
+        <v>3.7399797303628102</v>
       </c>
       <c r="K84" s="42">
-        <v>4.0364005576553099</v>
+        <v>3.7835617536916701</v>
       </c>
       <c r="L84" s="42">
-        <v>4.1539038387829201</v>
+        <v>4.1824403580421796</v>
       </c>
       <c r="M84" s="42">
-        <v>4.0565561371333096</v>
+        <v>4.0473900521413304</v>
       </c>
       <c r="N84" s="42">
-        <v>7.8124514931689797</v>
+        <v>7.6728934625680196</v>
       </c>
       <c r="O84" s="42">
-        <v>4.2123177273558596</v>
+        <v>4.2288295448378301</v>
       </c>
       <c r="P84" s="42">
-        <v>5.3379085621894804</v>
+        <v>5.4297472895170902</v>
       </c>
       <c r="Q84" s="42">
-        <v>6.6586233011662399</v>
+        <v>6.6801076136038704</v>
       </c>
       <c r="R84" s="42">
-        <v>7.0705406202411396</v>
+        <v>7.0800504835054499</v>
       </c>
       <c r="S84" s="42">
-        <v>6.45653721934712</v>
+        <v>6.5410312248154403</v>
       </c>
       <c r="T84" s="42">
-        <v>6.74308042768281</v>
+        <v>6.8384371273877598</v>
       </c>
       <c r="U84" s="42">
-        <v>6.4928336889620297</v>
+        <v>6.56968209949427</v>
       </c>
       <c r="V84" s="42">
-        <v>2.8569746881412401</v>
+        <v>3.2617376223169599</v>
       </c>
       <c r="W84" s="42">
-        <v>6.5401034692475299</v>
+        <v>6.7872111557858004</v>
       </c>
       <c r="X84" s="42">
-        <v>4.2582438340023696</v>
+        <v>4.3453822035950997</v>
       </c>
       <c r="Y84" s="42">
-        <v>-1.7729167876400002E-2</v>
+        <v>0.51088052181648003</v>
       </c>
       <c r="Z84" s="42">
-        <v>5.9158380367832404</v>
+        <v>5.85549112399175</v>
       </c>
       <c r="AA84" s="42">
-        <v>6.3977159601913902</v>
+        <v>6.2880306589592498</v>
       </c>
       <c r="AB84" s="42">
-        <v>5.63345310493483</v>
+        <v>5.4675538741788303</v>
       </c>
       <c r="AC84" s="42">
-        <v>4.2703349178694001</v>
+        <v>4.2426706765968802</v>
       </c>
       <c r="AD84" s="42">
-        <v>4.9791637704513603</v>
+        <v>4.8937487044274102</v>
       </c>
       <c r="AE84" s="42">
-        <v>4.2249737143644399</v>
+        <v>4.2139665256261596</v>
       </c>
       <c r="AF84" s="42">
-        <v>4.7880586021654903</v>
+        <v>4.59990737351698</v>
       </c>
       <c r="AG84" s="42">
-        <v>0.79194297030659999</v>
+        <v>0.59731302694336996</v>
       </c>
       <c r="AH84" s="42">
-        <v>4.5636666343181602</v>
+        <v>4.5655764334279496</v>
       </c>
       <c r="AI84" s="42">
-        <v>4.0578071098267099</v>
+        <v>4.0243822590984504</v>
       </c>
       <c r="AJ84" s="42">
-        <v>4.8109622380456001</v>
+        <v>4.7671668456830902</v>
       </c>
       <c r="AK84" s="42">
-        <v>5.6821071921880799</v>
+        <v>5.5979866651235204</v>
       </c>
       <c r="AL84" s="42">
-        <v>5.7032151555039299</v>
+        <v>5.6429002858663404</v>
       </c>
       <c r="AM84" s="42">
-        <v>5.6405381325143402</v>
+        <v>5.5931690928871403</v>
       </c>
       <c r="AN84" s="42">
-        <v>6.0356750256770901</v>
+        <v>5.9822868563015499</v>
       </c>
       <c r="AO84" s="42">
-        <v>6.0301723148528197</v>
+        <v>5.9840760672940796</v>
       </c>
       <c r="AP84" s="43">
-        <v>5.8181946419785699</v>
+        <v>5.7599255663245899</v>
       </c>
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.35">
@@ -12161,124 +12164,124 @@
         <v>176</v>
       </c>
       <c r="C86" s="36">
-        <v>1.9999491231853701</v>
+        <v>2.04778071871376</v>
       </c>
       <c r="D86" s="36">
-        <v>1.4652401567554101</v>
+        <v>1.49597897084047</v>
       </c>
       <c r="E86" s="36">
-        <v>1.4205478872425901</v>
+        <v>1.4113772321888001</v>
       </c>
       <c r="F86" s="36">
-        <v>1.21545443824765</v>
+        <v>1.23399721358408</v>
       </c>
       <c r="G86" s="36">
-        <v>2.37041023375015</v>
+        <v>2.5607272310746798</v>
       </c>
       <c r="H86" s="36">
-        <v>3.2544155735124298</v>
+        <v>3.2587345945287902</v>
       </c>
       <c r="I86" s="36">
-        <v>5.4918324164043204</v>
+        <v>5.4829676612525002</v>
       </c>
       <c r="J86" s="36">
-        <v>3.4222134998625702</v>
+        <v>3.4174127623250201</v>
       </c>
       <c r="K86" s="36">
-        <v>5.2430980438930099</v>
+        <v>5.3083621842844897</v>
       </c>
       <c r="L86" s="36">
-        <v>3.3738428013100501</v>
+        <v>3.3591730314776602</v>
       </c>
       <c r="M86" s="36">
-        <v>3.9476367432993702</v>
+        <v>3.9482150471194002</v>
       </c>
       <c r="N86" s="36">
-        <v>4.1709532870823196</v>
+        <v>4.1576304583557198</v>
       </c>
       <c r="O86" s="36">
-        <v>5.8573209981484897</v>
+        <v>5.8728660205466898</v>
       </c>
       <c r="P86" s="36">
-        <v>5.3167365448805199</v>
+        <v>5.2976873348683604</v>
       </c>
       <c r="Q86" s="36">
-        <v>5.8975234155995402</v>
+        <v>5.8840906687957704</v>
       </c>
       <c r="R86" s="36">
-        <v>5.5792282534448301</v>
+        <v>5.5592971924267296</v>
       </c>
       <c r="S86" s="36">
-        <v>5.7439819369081402</v>
+        <v>5.7174384479029596</v>
       </c>
       <c r="T86" s="36">
-        <v>6.06427291630086</v>
+        <v>6.0355140971594299</v>
       </c>
       <c r="U86" s="36">
-        <v>5.7263737815412501</v>
+        <v>5.7001096564320903</v>
       </c>
       <c r="V86" s="36">
-        <v>4.7436319591076899</v>
+        <v>4.6836849082599104</v>
       </c>
       <c r="W86" s="36">
-        <v>6.4720211622776196</v>
+        <v>6.4188677254944597</v>
       </c>
       <c r="X86" s="36">
-        <v>3.6975281512497999</v>
+        <v>3.6710941131869101</v>
       </c>
       <c r="Y86" s="36">
-        <v>4.2466167767274001</v>
+        <v>4.1998780368036401</v>
       </c>
       <c r="Z86" s="36">
-        <v>4.3103128927635899</v>
+        <v>4.2995927694291103</v>
       </c>
       <c r="AA86" s="36">
-        <v>4.56021442288705</v>
+        <v>4.5582778747436299</v>
       </c>
       <c r="AB86" s="36">
-        <v>3.6646021645851499</v>
+        <v>3.6747926698589199</v>
       </c>
       <c r="AC86" s="36">
-        <v>2.1196387433399302</v>
+        <v>2.0966051360639799</v>
       </c>
       <c r="AD86" s="36">
-        <v>2.59673718427385</v>
+        <v>2.5837707534677201</v>
       </c>
       <c r="AE86" s="36">
-        <v>3.46942404825923</v>
+        <v>3.4612979713154801</v>
       </c>
       <c r="AF86" s="36">
-        <v>3.5942612667582501</v>
+        <v>3.6245692744166802</v>
       </c>
       <c r="AG86" s="36">
-        <v>-0.72352023266260002</v>
+        <v>-0.69506426908779995</v>
       </c>
       <c r="AH86" s="36">
-        <v>4.2509028253117904</v>
+        <v>4.2460840469657697</v>
       </c>
       <c r="AI86" s="36">
-        <v>4.36920893246565</v>
+        <v>4.3819531135838998</v>
       </c>
       <c r="AJ86" s="36">
-        <v>3.62417640148354</v>
+        <v>3.61903267607167</v>
       </c>
       <c r="AK86" s="36">
-        <v>4.1521475577011904</v>
+        <v>4.1529034246765297</v>
       </c>
       <c r="AL86" s="36">
-        <v>4.2958244159426</v>
+        <v>4.2922391416064398</v>
       </c>
       <c r="AM86" s="36">
-        <v>4.4296230152513498</v>
+        <v>4.4254353242044102</v>
       </c>
       <c r="AN86" s="36">
-        <v>4.4619197527735004</v>
+        <v>4.4543883641731101</v>
       </c>
       <c r="AO86" s="36">
-        <v>4.5474253217004401</v>
+        <v>4.53924291277088</v>
       </c>
       <c r="AP86" s="37">
-        <v>4.3772958345843298</v>
+        <v>4.3727536759610803</v>
       </c>
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.35">
@@ -12287,124 +12290,124 @@
         <v>177</v>
       </c>
       <c r="C87" s="36">
-        <v>7.18914913950523</v>
+        <v>7.0822580564647</v>
       </c>
       <c r="D87" s="36">
-        <v>5.4082196363771899</v>
+        <v>5.6265754281692804</v>
       </c>
       <c r="E87" s="36">
-        <v>3.4269724924368599</v>
+        <v>3.43062345282239</v>
       </c>
       <c r="F87" s="36">
-        <v>2.55655010861748</v>
+        <v>2.5828882043644499</v>
       </c>
       <c r="G87" s="36">
-        <v>3.26088689684136</v>
+        <v>3.2929973283123299</v>
       </c>
       <c r="H87" s="36">
-        <v>5.3818509841793896</v>
+        <v>5.3906334222597598</v>
       </c>
       <c r="I87" s="36">
-        <v>6.3576021685060597</v>
+        <v>6.34411440737001</v>
       </c>
       <c r="J87" s="36">
-        <v>3.7011291972306899</v>
+        <v>3.7458081679463699</v>
       </c>
       <c r="K87" s="36">
-        <v>0.79534281560626996</v>
+        <v>0.81655643982530002</v>
       </c>
       <c r="L87" s="36">
-        <v>4.7168224718868199</v>
+        <v>4.6784672318301102</v>
       </c>
       <c r="M87" s="36">
-        <v>4.78587608192161</v>
+        <v>4.7592410306349402</v>
       </c>
       <c r="N87" s="36">
-        <v>4.1976106494919803</v>
+        <v>4.1954114320392897</v>
       </c>
       <c r="O87" s="36">
-        <v>4.6833087521918699</v>
+        <v>4.6749653976478003</v>
       </c>
       <c r="P87" s="36">
-        <v>6.8900816049271496</v>
+        <v>6.8576851632933096</v>
       </c>
       <c r="Q87" s="36">
-        <v>6.7993582699558601</v>
+        <v>6.8043752057249698</v>
       </c>
       <c r="R87" s="36">
-        <v>7.0634908857233301</v>
+        <v>7.0283550565336403</v>
       </c>
       <c r="S87" s="36">
-        <v>7.2741946521872398</v>
+        <v>7.2438590901773203</v>
       </c>
       <c r="T87" s="36">
-        <v>8.1537435348822704</v>
+        <v>8.1615996676454508</v>
       </c>
       <c r="U87" s="36">
-        <v>4.4280727870052097</v>
+        <v>4.4565129467018796</v>
       </c>
       <c r="V87" s="36">
-        <v>4.75144476409685</v>
+        <v>4.7861740466337901</v>
       </c>
       <c r="W87" s="36">
-        <v>7.6176011733968796</v>
+        <v>7.62139927879441</v>
       </c>
       <c r="X87" s="36">
-        <v>5.7522510574450099</v>
+        <v>5.72523329742305</v>
       </c>
       <c r="Y87" s="36">
-        <v>4.6259557138108498</v>
+        <v>4.6140317155526098</v>
       </c>
       <c r="Z87" s="36">
-        <v>5.12929187762672</v>
+        <v>5.1215789859440299</v>
       </c>
       <c r="AA87" s="36">
-        <v>5.9431303299751601</v>
+        <v>5.9223236441036597</v>
       </c>
       <c r="AB87" s="36">
-        <v>5.6725013378385896</v>
+        <v>5.6405588148556598</v>
       </c>
       <c r="AC87" s="36">
-        <v>6.9532447500105299</v>
+        <v>6.9214660359227604</v>
       </c>
       <c r="AD87" s="36">
-        <v>5.8808440089693903</v>
+        <v>5.8522106569007102</v>
       </c>
       <c r="AE87" s="36">
-        <v>5.5391570733507898</v>
+        <v>5.4982604170508296</v>
       </c>
       <c r="AF87" s="36">
-        <v>4.04681930881992</v>
+        <v>3.9915704576042801</v>
       </c>
       <c r="AG87" s="36">
-        <v>-3.1573326339218002</v>
+        <v>-3.2434497394349</v>
       </c>
       <c r="AH87" s="36">
-        <v>6.43821276707693</v>
+        <v>6.4366916099906897</v>
       </c>
       <c r="AI87" s="36">
-        <v>5.36523030661467</v>
+        <v>5.3641190302633701</v>
       </c>
       <c r="AJ87" s="36">
-        <v>4.7951795898433396</v>
+        <v>4.7955117311698396</v>
       </c>
       <c r="AK87" s="36">
-        <v>5.5258157643016403</v>
+        <v>5.5264399228252703</v>
       </c>
       <c r="AL87" s="36">
-        <v>5.5737592742377799</v>
+        <v>5.5743707023453704</v>
       </c>
       <c r="AM87" s="36">
-        <v>5.5584459256234604</v>
+        <v>5.5590344577145396</v>
       </c>
       <c r="AN87" s="36">
-        <v>5.5657251169329802</v>
+        <v>5.5662952458716601</v>
       </c>
       <c r="AO87" s="36">
-        <v>5.5844810302348096</v>
+        <v>5.5850349043222902</v>
       </c>
       <c r="AP87" s="37">
-        <v>5.56164354747595</v>
+        <v>5.5622331753681298</v>
       </c>
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.35">
@@ -12539,124 +12542,124 @@
         <v>179</v>
       </c>
       <c r="C89" s="36">
-        <v>2.1574408708479602</v>
+        <v>2.5178679256766099</v>
       </c>
       <c r="D89" s="36">
-        <v>4.2946826404667497</v>
+        <v>4.74514144016669</v>
       </c>
       <c r="E89" s="36">
-        <v>1.2664984621137401</v>
+        <v>1.4699407619265601</v>
       </c>
       <c r="F89" s="36">
-        <v>3.7885411822666999</v>
+        <v>3.82440625173603</v>
       </c>
       <c r="G89" s="36">
-        <v>3.1894205529631998</v>
+        <v>3.15764473672581</v>
       </c>
       <c r="H89" s="36">
-        <v>3.6643810766628002</v>
+        <v>3.5791448819036602</v>
       </c>
       <c r="I89" s="36">
-        <v>4.92619108243216</v>
+        <v>4.9452766198950302</v>
       </c>
       <c r="J89" s="36">
-        <v>5.36425756296451</v>
+        <v>5.5756869420459898</v>
       </c>
       <c r="K89" s="36">
-        <v>2.4096323773053898</v>
+        <v>2.5283657701251201</v>
       </c>
       <c r="L89" s="36">
-        <v>3.8568796159833898</v>
+        <v>3.9617831746384602</v>
       </c>
       <c r="M89" s="36">
-        <v>6.4716592484659898</v>
+        <v>6.5589734273703204</v>
       </c>
       <c r="N89" s="36">
-        <v>3.7721996623349598</v>
+        <v>3.7563910081334799</v>
       </c>
       <c r="O89" s="36">
-        <v>5.2328649029937502</v>
+        <v>5.23717351294881</v>
       </c>
       <c r="P89" s="36">
-        <v>7.4128886275008403</v>
+        <v>7.5217913250311499</v>
       </c>
       <c r="Q89" s="36">
-        <v>8.6911682685875302</v>
+        <v>8.6685594986423897</v>
       </c>
       <c r="R89" s="36">
-        <v>7.6219471391431002</v>
+        <v>7.6896169006692299</v>
       </c>
       <c r="S89" s="36">
-        <v>8.8963066023826602</v>
+        <v>8.9294865001402304</v>
       </c>
       <c r="T89" s="36">
-        <v>9.6228244648490708</v>
+        <v>9.6563903429220304</v>
       </c>
       <c r="U89" s="36">
-        <v>6.5435828175104103</v>
+        <v>6.4812100672828903</v>
       </c>
       <c r="V89" s="36">
-        <v>2.5819119655116101</v>
+        <v>2.6868949200979202</v>
       </c>
       <c r="W89" s="36">
-        <v>8.2176025583209906</v>
+        <v>8.3868362017093308</v>
       </c>
       <c r="X89" s="36">
-        <v>7.2413636845044396</v>
+        <v>7.28436830340803</v>
       </c>
       <c r="Y89" s="36">
-        <v>5.7764348610861598</v>
+        <v>5.8253584963442302</v>
       </c>
       <c r="Z89" s="36">
-        <v>5.53135647502776</v>
+        <v>5.5955152679717601</v>
       </c>
       <c r="AA89" s="36">
-        <v>4.6815907929357596</v>
+        <v>4.6931416548253502</v>
       </c>
       <c r="AB89" s="36">
-        <v>4.1469347282858502</v>
+        <v>4.1648707845403603</v>
       </c>
       <c r="AC89" s="36">
-        <v>4.1276852230871199</v>
+        <v>4.1488093825075198</v>
       </c>
       <c r="AD89" s="36">
-        <v>5.0480363385010802</v>
+        <v>5.0134711074482796</v>
       </c>
       <c r="AE89" s="36">
-        <v>4.7940775802565998</v>
+        <v>4.79775835956164</v>
       </c>
       <c r="AF89" s="36">
-        <v>3.9346962011542801</v>
+        <v>3.9649615420793101</v>
       </c>
       <c r="AG89" s="36">
-        <v>-0.78745768402229999</v>
+        <v>-0.65842783143250005</v>
       </c>
       <c r="AH89" s="36">
-        <v>7.6245635184190297</v>
+        <v>7.6266181972198401</v>
       </c>
       <c r="AI89" s="36">
-        <v>3.0778423871563998</v>
+        <v>3.0340622859026398</v>
       </c>
       <c r="AJ89" s="36">
-        <v>3.8108938514496402</v>
+        <v>3.8262076528015498</v>
       </c>
       <c r="AK89" s="36">
-        <v>3.6546321538147599</v>
+        <v>3.6535227078800698</v>
       </c>
       <c r="AL89" s="36">
-        <v>3.36787494794899</v>
+        <v>3.3606349286002999</v>
       </c>
       <c r="AM89" s="36">
-        <v>3.3219132441229302</v>
+        <v>3.3145482203901402</v>
       </c>
       <c r="AN89" s="36">
-        <v>3.0831139345699299</v>
+        <v>3.0733475554198999</v>
       </c>
       <c r="AO89" s="36">
-        <v>2.9833399801595699</v>
+        <v>2.9722387026532902</v>
       </c>
       <c r="AP89" s="37">
-        <v>3.2819071759238501</v>
+        <v>3.2745830581366202</v>
       </c>
     </row>
     <row r="90" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12665,124 +12668,124 @@
         <v>180</v>
       </c>
       <c r="C90" s="39">
-        <v>3.2536465910432502</v>
+        <v>3.1695302623726702</v>
       </c>
       <c r="D90" s="39">
-        <v>1.67306871272266</v>
+        <v>1.5550465690798401</v>
       </c>
       <c r="E90" s="39">
-        <v>2.4838029625779399</v>
+        <v>2.4031730934368398</v>
       </c>
       <c r="F90" s="39">
-        <v>1.2999324282326401</v>
+        <v>1.3048408216482399</v>
       </c>
       <c r="G90" s="39">
-        <v>3.2593294610164598</v>
+        <v>3.2641076903457802</v>
       </c>
       <c r="H90" s="39">
-        <v>2.88133562536358</v>
+        <v>2.9140331515301199</v>
       </c>
       <c r="I90" s="39">
-        <v>3.0230796509082301</v>
+        <v>3.03378209404557</v>
       </c>
       <c r="J90" s="39">
-        <v>3.5486665979507399</v>
+        <v>3.4821653904666299</v>
       </c>
       <c r="K90" s="39">
-        <v>2.8685192417492398</v>
+        <v>2.8212161177549002</v>
       </c>
       <c r="L90" s="39">
-        <v>3.3144721106417601</v>
+        <v>3.2865503098147899</v>
       </c>
       <c r="M90" s="39">
-        <v>4.21182170691013</v>
+        <v>4.20247942502293</v>
       </c>
       <c r="N90" s="39">
-        <v>1.5103521021159301</v>
+        <v>1.53276617283353</v>
       </c>
       <c r="O90" s="39">
-        <v>1.4991048402904901</v>
+        <v>1.5280159146289001</v>
       </c>
       <c r="P90" s="39">
-        <v>2.4402976348120702</v>
+        <v>2.4409902702728301</v>
       </c>
       <c r="Q90" s="39">
-        <v>3.50160913185311</v>
+        <v>3.5543786687555401</v>
       </c>
       <c r="R90" s="39">
-        <v>2.9591683884063702</v>
+        <v>2.9756948827665499</v>
       </c>
       <c r="S90" s="39">
-        <v>3.23726181886689</v>
+        <v>3.2791159833293402</v>
       </c>
       <c r="T90" s="39">
-        <v>2.7907071747729901</v>
+        <v>2.8357635835569002</v>
       </c>
       <c r="U90" s="39">
-        <v>0.74719717846622002</v>
+        <v>0.83286759546545996</v>
       </c>
       <c r="V90" s="39">
-        <v>-3.1744422745002998</v>
+        <v>-3.1892950756257998</v>
       </c>
       <c r="W90" s="39">
-        <v>3.0859803217619</v>
+        <v>3.0340035028637602</v>
       </c>
       <c r="X90" s="39">
-        <v>2.2368312556999399</v>
+        <v>2.2675706478058899</v>
       </c>
       <c r="Y90" s="39">
-        <v>1.4878733270671201</v>
+        <v>1.5034134434717601</v>
       </c>
       <c r="Z90" s="39">
-        <v>1.49748344200531</v>
+        <v>1.4963156571421801</v>
       </c>
       <c r="AA90" s="39">
-        <v>2.11469769117859</v>
+        <v>2.13575028732286</v>
       </c>
       <c r="AB90" s="39">
-        <v>2.52712342883909</v>
+        <v>2.5383053297704401</v>
       </c>
       <c r="AC90" s="39">
-        <v>1.88261823334238</v>
+        <v>1.8972171488740499</v>
       </c>
       <c r="AD90" s="39">
-        <v>2.3676601024081498</v>
+        <v>2.4285784280220701</v>
       </c>
       <c r="AE90" s="39">
-        <v>2.3763190645710699</v>
+        <v>2.4140904700743899</v>
       </c>
       <c r="AF90" s="39">
-        <v>1.75989223413337</v>
+        <v>1.7829172306454799</v>
       </c>
       <c r="AG90" s="39">
-        <v>-4.3283190017189002</v>
+        <v>-4.3480763244166001</v>
       </c>
       <c r="AH90" s="39">
-        <v>5.3889823405144703</v>
+        <v>5.4146326362499799</v>
       </c>
       <c r="AI90" s="39">
-        <v>3.0514669799312499</v>
+        <v>3.0844536650847099</v>
       </c>
       <c r="AJ90" s="39">
-        <v>1.2284368955689</v>
+        <v>1.2490283999478</v>
       </c>
       <c r="AK90" s="39">
-        <v>1.4459000977682701</v>
+        <v>1.4747717084495999</v>
       </c>
       <c r="AL90" s="39">
-        <v>1.9360003398507599</v>
+        <v>1.96011574247278</v>
       </c>
       <c r="AM90" s="39">
-        <v>1.9631231251365799</v>
+        <v>1.9867715094258001</v>
       </c>
       <c r="AN90" s="39">
-        <v>1.8967360979887999</v>
+        <v>1.9203755349377001</v>
       </c>
       <c r="AO90" s="39">
-        <v>1.87412554004647</v>
+        <v>1.8981491798058501</v>
       </c>
       <c r="AP90" s="40">
-        <v>1.8229973362766001</v>
+        <v>1.8478607952403101</v>
       </c>
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.35">
@@ -12845,7 +12848,7 @@
         <v>7.7539896938279096</v>
       </c>
       <c r="U91" s="42">
-        <v>6.9547769323742203</v>
+        <v>6.9547769323742097</v>
       </c>
       <c r="V91" s="42">
         <v>2.9639789991418102</v>
@@ -12857,7 +12860,7 @@
         <v>4.4226133437352102</v>
       </c>
       <c r="Y91" s="42">
-        <v>2.61558101287814</v>
+        <v>2.6155810128781498</v>
       </c>
       <c r="Z91" s="42">
         <v>5.64969997066156</v>
@@ -12866,7 +12869,7 @@
         <v>6.0212496986077104</v>
       </c>
       <c r="AB91" s="42">
-        <v>4.7573684638885396</v>
+        <v>4.7573684638885503</v>
       </c>
       <c r="AC91" s="42">
         <v>3.5076510559718201</v>
@@ -13169,124 +13172,124 @@
         <v>184</v>
       </c>
       <c r="C94" s="36">
-        <v>3.9892228421730098</v>
+        <v>4.0330963763297403</v>
       </c>
       <c r="D94" s="36">
-        <v>3.5894412903001802</v>
+        <v>3.7055076209774498</v>
       </c>
       <c r="E94" s="36">
-        <v>6.4220231293987098</v>
+        <v>6.3590216778735504</v>
       </c>
       <c r="F94" s="36">
-        <v>7.3325206999552899</v>
+        <v>7.3080186615747698</v>
       </c>
       <c r="G94" s="36">
-        <v>6.17502705067559</v>
+        <v>6.4356304995485498</v>
       </c>
       <c r="H94" s="36">
-        <v>5.5925553492756901</v>
+        <v>5.9034749405008498</v>
       </c>
       <c r="I94" s="36">
-        <v>6.0749137091366601</v>
+        <v>6.3072586721867596</v>
       </c>
       <c r="J94" s="36">
-        <v>6.1787739633888599</v>
+        <v>6.4820642921629803</v>
       </c>
       <c r="K94" s="36">
-        <v>1.3691536113396401</v>
+        <v>1.08306886295976</v>
       </c>
       <c r="L94" s="36">
-        <v>5.24819495380319</v>
+        <v>5.18819572689699</v>
       </c>
       <c r="M94" s="36">
-        <v>6.2814064498481903</v>
+        <v>6.2198285292623599</v>
       </c>
       <c r="N94" s="36">
-        <v>0.55192234421359998</v>
+        <v>0.38701816475063999</v>
       </c>
       <c r="O94" s="36">
-        <v>3.5853101009947799</v>
+        <v>3.6054030150452601</v>
       </c>
       <c r="P94" s="36">
-        <v>4.31005689724517</v>
+        <v>4.1377432202829798</v>
       </c>
       <c r="Q94" s="36">
-        <v>6.6760117255351403</v>
+        <v>6.6494393515888897</v>
       </c>
       <c r="R94" s="36">
-        <v>6.4656571993381</v>
+        <v>6.4391268724815101</v>
       </c>
       <c r="S94" s="36">
-        <v>8.1371546309491798</v>
+        <v>8.2809489500413793</v>
       </c>
       <c r="T94" s="36">
-        <v>7.4433032707953597</v>
+        <v>7.3693895906384004</v>
       </c>
       <c r="U94" s="36">
-        <v>2.4391915562461901</v>
+        <v>2.0952763257729798</v>
       </c>
       <c r="V94" s="36">
-        <v>0.31394703561471998</v>
+        <v>0.10753087298475</v>
       </c>
       <c r="W94" s="36">
-        <v>9.7843026199104699</v>
+        <v>10.2636641788063</v>
       </c>
       <c r="X94" s="36">
-        <v>4.5015630806865099</v>
+        <v>4.7174552222121502</v>
       </c>
       <c r="Y94" s="36">
-        <v>3.68457959588563</v>
+        <v>3.6806668116357599</v>
       </c>
       <c r="Z94" s="36">
-        <v>4.4228770246337703</v>
+        <v>4.3345519580617404</v>
       </c>
       <c r="AA94" s="36">
-        <v>4.4655768507034601</v>
+        <v>4.4754037362772099</v>
       </c>
       <c r="AB94" s="36">
-        <v>3.3682089893382399</v>
+        <v>3.43455635001615</v>
       </c>
       <c r="AC94" s="36">
-        <v>3.5288032769797399</v>
+        <v>3.5266664718167902</v>
       </c>
       <c r="AD94" s="36">
-        <v>3.8472904578251099</v>
+        <v>3.8130416198789101</v>
       </c>
       <c r="AE94" s="36">
-        <v>3.6922194279673</v>
+        <v>3.8121781743689098</v>
       </c>
       <c r="AF94" s="36">
-        <v>2.1284451638767599</v>
+        <v>2.1255219044057601</v>
       </c>
       <c r="AG94" s="36">
-        <v>-4.8854856567037004</v>
+        <v>-4.9038347247490996</v>
       </c>
       <c r="AH94" s="36">
-        <v>8.2832601386794593</v>
+        <v>8.6885433464359707</v>
       </c>
       <c r="AI94" s="36">
-        <v>5.5850356566144397</v>
+        <v>5.6846660690341597</v>
       </c>
       <c r="AJ94" s="36">
-        <v>3.6390403359555301</v>
+        <v>3.68445260145422</v>
       </c>
       <c r="AK94" s="36">
-        <v>4.9522726718533603</v>
+        <v>5.03614252684745</v>
       </c>
       <c r="AL94" s="36">
-        <v>3.1213024678011698</v>
+        <v>3.1182945092116801</v>
       </c>
       <c r="AM94" s="36">
-        <v>5.1052773255220503</v>
+        <v>5.2753618813634704</v>
       </c>
       <c r="AN94" s="36">
-        <v>3.0392002862726102</v>
+        <v>3.06140449418477</v>
       </c>
       <c r="AO94" s="36">
-        <v>3.0449167230353802</v>
+        <v>3.0665094820559999</v>
       </c>
       <c r="AP94" s="37">
-        <v>3.8481495427601802</v>
+        <v>3.9065608640471901</v>
       </c>
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.35">
@@ -13298,7 +13301,7 @@
         <v>3.72224862858056</v>
       </c>
       <c r="D95" s="36">
-        <v>1.77400297686958</v>
+        <v>1.77400297686959</v>
       </c>
       <c r="E95" s="36">
         <v>-0.3144063257593</v>
@@ -13376,7 +13379,7 @@
         <v>4.1747884226562597</v>
       </c>
       <c r="AD95" s="36">
-        <v>6.2754642790222999</v>
+        <v>6.2754642790223096</v>
       </c>
       <c r="AE95" s="36">
         <v>5.8212994058827201</v>
@@ -13547,124 +13550,124 @@
         <v>187</v>
       </c>
       <c r="C97" s="42">
-        <v>1.5021380364600601</v>
+        <v>1.61127266935296</v>
       </c>
       <c r="D97" s="42">
-        <v>3.7099934998006998</v>
+        <v>3.7153586531451199</v>
       </c>
       <c r="E97" s="42">
-        <v>0.11238651206278</v>
+        <v>0.14288097436427</v>
       </c>
       <c r="F97" s="42">
-        <v>0.47210511095676</v>
+        <v>0.53264748945953999</v>
       </c>
       <c r="G97" s="42">
-        <v>1.75825298715881</v>
+        <v>1.76122401880097</v>
       </c>
       <c r="H97" s="42">
-        <v>1.5969082536011201</v>
+        <v>1.6498267174388099</v>
       </c>
       <c r="I97" s="42">
-        <v>4.6899873201470701</v>
+        <v>4.68564495284802</v>
       </c>
       <c r="J97" s="42">
-        <v>2.90823092073463</v>
+        <v>2.9428091343201799</v>
       </c>
       <c r="K97" s="42">
-        <v>3.08276694018494</v>
+        <v>3.09361389768122</v>
       </c>
       <c r="L97" s="42">
-        <v>2.1113870021671501</v>
+        <v>2.13883874976433</v>
       </c>
       <c r="M97" s="42">
-        <v>4.3078968432197096</v>
+        <v>4.3272025883502501</v>
       </c>
       <c r="N97" s="42">
-        <v>5.9207237854322301</v>
+        <v>5.9134432442768601</v>
       </c>
       <c r="O97" s="42">
-        <v>6.4879206179359503</v>
+        <v>6.4653400900910301</v>
       </c>
       <c r="P97" s="42">
-        <v>6.9814890636254301</v>
+        <v>6.9394634215555699</v>
       </c>
       <c r="Q97" s="42">
-        <v>7.7364378450562796</v>
+        <v>7.6982662426656097</v>
       </c>
       <c r="R97" s="42">
-        <v>7.3507900118317098</v>
+        <v>7.2890172722308701</v>
       </c>
       <c r="S97" s="42">
-        <v>5.8377856050579</v>
+        <v>5.8173791456892197</v>
       </c>
       <c r="T97" s="42">
-        <v>7.0010071648656202</v>
+        <v>6.99016611914195</v>
       </c>
       <c r="U97" s="42">
-        <v>5.68641401289445</v>
+        <v>5.6780221558650004</v>
       </c>
       <c r="V97" s="42">
-        <v>4.1515949165780102</v>
+        <v>4.1324247802086003</v>
       </c>
       <c r="W97" s="42">
-        <v>7.7266165017725301</v>
+        <v>7.6708444025506601</v>
       </c>
       <c r="X97" s="42">
-        <v>1.9818632320471601</v>
+        <v>1.99197000604901</v>
       </c>
       <c r="Y97" s="42">
-        <v>10.0683227068437</v>
+        <v>10.014882929099</v>
       </c>
       <c r="Z97" s="42">
-        <v>3.9612475071620499</v>
+        <v>3.9954175241294201</v>
       </c>
       <c r="AA97" s="42">
-        <v>4.6518510862725302</v>
+        <v>4.6700803235097004</v>
       </c>
       <c r="AB97" s="42">
-        <v>3.6700759819275102</v>
+        <v>3.64951671094751</v>
       </c>
       <c r="AC97" s="42">
-        <v>1.4738733950719201</v>
+        <v>1.4946206272118101</v>
       </c>
       <c r="AD97" s="42">
-        <v>4.4528327890558703</v>
+        <v>4.46645215916217</v>
       </c>
       <c r="AE97" s="42">
-        <v>3.3011269373345602</v>
+        <v>3.3403483781135299</v>
       </c>
       <c r="AF97" s="42">
-        <v>2.7341498688254</v>
+        <v>2.7838603331550602</v>
       </c>
       <c r="AG97" s="42">
-        <v>-1.5424780266333</v>
+        <v>-1.4737730367566</v>
       </c>
       <c r="AH97" s="42">
-        <v>5.2506340834632201</v>
+        <v>5.2753939050630896</v>
       </c>
       <c r="AI97" s="42">
-        <v>3.32319064858997</v>
+        <v>3.35921216316344</v>
       </c>
       <c r="AJ97" s="42">
-        <v>4.7385961830297196</v>
+        <v>4.7555235106023996</v>
       </c>
       <c r="AK97" s="42">
-        <v>4.6847435950012501</v>
+        <v>4.7018287575100697</v>
       </c>
       <c r="AL97" s="42">
-        <v>4.7190287810794498</v>
+        <v>4.7380272320391397</v>
       </c>
       <c r="AM97" s="42">
-        <v>4.6552231005756299</v>
+        <v>4.6742113729020298</v>
       </c>
       <c r="AN97" s="42">
-        <v>4.8362728411610503</v>
+        <v>4.8521950897646304</v>
       </c>
       <c r="AO97" s="42">
-        <v>4.8321924311218201</v>
+        <v>4.8479977153578098</v>
       </c>
       <c r="AP97" s="43">
-        <v>4.7454651370805196</v>
+        <v>4.7628258536614796</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13682,115 +13685,115 @@
         <v>5.3493255774792603</v>
       </c>
       <c r="F98" s="39">
-        <v>0.90703043777612002</v>
+        <v>0.78116685733421998</v>
       </c>
       <c r="G98" s="39">
-        <v>0.77008402783296004</v>
+        <v>0.59840960059796</v>
       </c>
       <c r="H98" s="39">
-        <v>3.84147897563484</v>
+        <v>3.7475947771359701</v>
       </c>
       <c r="I98" s="39">
-        <v>4.7783217096029604</v>
+        <v>4.6912765574593998</v>
       </c>
       <c r="J98" s="39">
-        <v>2.7487603593305998</v>
+        <v>2.6566839741697699</v>
       </c>
       <c r="K98" s="39">
-        <v>2.8252624983507602</v>
+        <v>2.8516219189211598</v>
       </c>
       <c r="L98" s="39">
-        <v>2.9377154527866298</v>
+        <v>3.03584244363523</v>
       </c>
       <c r="M98" s="39">
-        <v>4.4827195010327898</v>
+        <v>4.5985324767150004</v>
       </c>
       <c r="N98" s="39">
-        <v>2.7205292136782999</v>
+        <v>2.8987906946344602</v>
       </c>
       <c r="O98" s="39">
-        <v>3.4436139376098298</v>
+        <v>3.5709020145686301</v>
       </c>
       <c r="P98" s="39">
-        <v>9.9276729858953008</v>
+        <v>10.0049521309742</v>
       </c>
       <c r="Q98" s="39">
-        <v>11.4594064454307</v>
+        <v>11.4934993338716</v>
       </c>
       <c r="R98" s="39">
-        <v>6.0306508936640997</v>
+        <v>6.1197066714829997</v>
       </c>
       <c r="S98" s="39">
-        <v>6.2704919070402898</v>
+        <v>6.3295923498229296</v>
       </c>
       <c r="T98" s="39">
-        <v>7.0151647128241201</v>
+        <v>7.0729821572457201</v>
       </c>
       <c r="U98" s="39">
-        <v>3.8560006012310399</v>
+        <v>4.0274273282827098</v>
       </c>
       <c r="V98" s="39">
-        <v>1.6245262263812501</v>
+        <v>1.7012523972807601</v>
       </c>
       <c r="W98" s="39">
-        <v>4.2501188846292699</v>
+        <v>4.4668832753018002</v>
       </c>
       <c r="X98" s="39">
-        <v>3.9597829575012899</v>
+        <v>4.1395632850012598</v>
       </c>
       <c r="Y98" s="39">
-        <v>3.5642856210168099</v>
+        <v>3.6167268474882799</v>
       </c>
       <c r="Z98" s="39">
-        <v>3.0433327920155602</v>
+        <v>2.9776452541415499</v>
       </c>
       <c r="AA98" s="39">
-        <v>3.4999364700006899</v>
+        <v>3.5074295378687799</v>
       </c>
       <c r="AB98" s="39">
-        <v>1.4461987689868401</v>
+        <v>1.4789041981339199</v>
       </c>
       <c r="AC98" s="39">
-        <v>4.7274710049709103</v>
+        <v>4.6150963522357298</v>
       </c>
       <c r="AD98" s="39">
-        <v>2.0797998904084798</v>
+        <v>2.12978303905426</v>
       </c>
       <c r="AE98" s="39">
-        <v>2.1816392688942501</v>
+        <v>2.1528219502387</v>
       </c>
       <c r="AF98" s="39">
-        <v>1.5948320441688399</v>
+        <v>1.4973388649627499</v>
       </c>
       <c r="AG98" s="39">
-        <v>-1.0155618508605999</v>
+        <v>-1.0621203489177999</v>
       </c>
       <c r="AH98" s="39">
-        <v>4.64333534714069</v>
+        <v>4.6404980889524303</v>
       </c>
       <c r="AI98" s="39">
-        <v>5.1412928683702299</v>
+        <v>5.0749431628383697</v>
       </c>
       <c r="AJ98" s="39">
-        <v>2.8487765020187399</v>
+        <v>2.8383973173863102</v>
       </c>
       <c r="AK98" s="39">
-        <v>3.8323514921239199</v>
+        <v>3.7996406222200099</v>
       </c>
       <c r="AL98" s="39">
-        <v>4.2174301922433699</v>
+        <v>4.1865318009088801</v>
       </c>
       <c r="AM98" s="39">
-        <v>4.3935921768621604</v>
+        <v>4.3533786016578997</v>
       </c>
       <c r="AN98" s="39">
-        <v>4.4945925700277103</v>
+        <v>4.4532231242733502</v>
       </c>
       <c r="AO98" s="39">
-        <v>4.4479693213498503</v>
+        <v>4.4076608393345698</v>
       </c>
       <c r="AP98" s="40">
-        <v>4.27690723358028</v>
+        <v>4.23981488376306</v>
       </c>
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.35">
@@ -14063,8 +14066,8 @@
       <c r="AP104" s="47"/>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A105" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="C105" s="47"/>
       <c r="D105" s="47"/>
@@ -14151,7 +14154,7 @@
     </row>
     <row r="107" spans="1:42" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C107" s="47"/>
       <c r="D107" s="47"/>
@@ -14239,7 +14242,7 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C109" s="47"/>
       <c r="D109" s="47"/>
@@ -14284,7 +14287,7 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C110" s="47"/>
       <c r="D110" s="47"/>
@@ -14372,7 +14375,7 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C112" s="47"/>
       <c r="D112" s="47"/>
@@ -14417,7 +14420,7 @@
     </row>
     <row r="113" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C113" s="47"/>
       <c r="D113" s="47"/>
@@ -14504,11 +14507,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{8D64C4A4-BACD-4BC2-91EF-E889D4EA0645}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{3CC6DC40-9569-4882-8C36-C55054250B1C}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{DF023984-DCFF-4315-9653-3B1C44C86CF9}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{C09CBA5F-07AF-4C86-BECE-8D8E695221CA}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{BB99C366-6C6A-4FA6-9F6C-D59DC6D8F789}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{49BC6E46-63B6-4646-B844-5CB2804947F4}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{3E73D461-019D-42EC-82F1-EA95751D6773}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{37B741C3-F45A-4CF0-A2CE-522BFA3E72BD}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{1754A213-B6A4-4CB2-8D31-A949E2E0BB23}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{15C9499F-B516-4F10-8B0E-87410FC9EDED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab02.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0613151-D209-45D4-892C-2B2DA40EBB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BE2177-A853-42B6-9F47-845EB9263773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2EDEB257-FED7-4D62-8183-D2301917443A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F0CEF71D-002C-4A53-825C-2B6BAF878A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F803340-590D-4BC7-BA61-B18C94AA68F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA12C20-B28C-46EA-8752-DAAB923A6887}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14507,11 +14507,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{49BC6E46-63B6-4646-B844-5CB2804947F4}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{3E73D461-019D-42EC-82F1-EA95751D6773}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{37B741C3-F45A-4CF0-A2CE-522BFA3E72BD}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{1754A213-B6A4-4CB2-8D31-A949E2E0BB23}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{15C9499F-B516-4F10-8B0E-87410FC9EDED}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{6CDD7C92-F912-4C6F-806B-6B285845EC88}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2B989004-47CA-40EE-8E51-5CD376F9E828}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{8CAC8D57-F72D-49C3-9103-730456210F83}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{32803B52-3827-475A-9B9F-0F36F4F6CB87}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{CF9D340F-D70B-461C-81BC-8A7D21E209F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab02.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BE2177-A853-42B6-9F47-845EB9263773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81295DBF-A510-4D0C-B3D0-035B8ADA9577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F0CEF71D-002C-4A53-825C-2B6BAF878A0F}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{9B59B402-16F7-4FCF-B178-F42790539AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="198">
   <si>
     <t>Tableau 2 : Taux de croissance annuel du PIB réel, 1990-2028</t>
   </si>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
   </si>
   <si>
     <t>2022</t>
@@ -1394,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA12C20-B28C-46EA-8752-DAAB923A6887}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D609AC0-D880-4969-911C-14B1BAA68FCC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1553,23 +1547,23 @@
       <c r="AF2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>2021</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="AM2" s="7">
         <v>2026</v>
@@ -1581,15 +1575,15 @@
         <v>2028</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="11">
         <v>-3.4500986836048999</v>
@@ -1714,10 +1708,10 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="14">
         <v>8.7872308705061002</v>
@@ -1842,10 +1836,10 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="17">
         <v>9.8585591219188409</v>
@@ -1970,10 +1964,10 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="17">
         <v>5.1911620508575202</v>
@@ -2098,10 +2092,10 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="17">
         <v>5.6922921097944696</v>
@@ -2226,10 +2220,10 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="17">
         <v>1.00000000000029</v>
@@ -2354,13 +2348,13 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="D9" s="17">
         <v>5.3425826397919698</v>
@@ -2482,10 +2476,10 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="17">
         <v>-0.31776042654039999</v>
@@ -2610,10 +2604,10 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="14">
         <v>-0.57853612190829995</v>
@@ -2738,37 +2732,37 @@
     </row>
     <row r="12" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L12" s="17">
         <v>-1.1106503899497</v>
@@ -2866,10 +2860,10 @@
     </row>
     <row r="13" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="21">
         <v>-1.84808751443E-2</v>
@@ -2994,10 +2988,10 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="17">
         <v>3.4582161161378999</v>
@@ -3122,10 +3116,10 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="17">
         <v>-6.1611132902019001</v>
@@ -3250,10 +3244,10 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="17">
         <v>1.3642481131744599</v>
@@ -3378,10 +3372,10 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C17" s="24">
         <v>3.20201094744754</v>
@@ -3506,10 +3500,10 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="24">
         <v>1.00341413944087</v>
@@ -3634,10 +3628,10 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="14">
         <v>-6.5683175272216996</v>
@@ -3762,10 +3756,10 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="24">
         <v>2.53652504625888</v>
@@ -3890,10 +3884,10 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="24">
         <v>5.1465845406956996</v>
@@ -4018,10 +4012,10 @@
     </row>
     <row r="22" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" s="17">
         <v>-2.1526457301514998</v>
@@ -4146,10 +4140,10 @@
     </row>
     <row r="23" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C23" s="21">
         <v>-2.9974012675278998</v>
@@ -4274,10 +4268,10 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="17">
         <v>7.3628563378502596</v>
@@ -4402,13 +4396,13 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="17">
         <v>-4.4564986719699</v>
@@ -4530,19 +4524,19 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F26" s="17">
         <v>12.8820878812642</v>
@@ -4658,10 +4652,10 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="17">
         <v>2.6016433373218502</v>
@@ -4786,10 +4780,10 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="17">
         <v>4.1336872409730496</v>
@@ -4914,10 +4908,10 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="17">
         <v>3.1289050539318599</v>
@@ -5042,10 +5036,10 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C30" s="17">
         <v>7.1867367330329399</v>
@@ -5170,10 +5164,10 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C31" s="17">
         <v>0.41896045277374</v>
@@ -5298,10 +5292,10 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" s="17">
         <v>7.45476631928857</v>
@@ -5426,76 +5420,76 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y33" s="17">
         <v>1.2000000000001301</v>
@@ -5554,76 +5548,76 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X34" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y34" s="24">
         <v>-50.319060542728998</v>
@@ -5682,10 +5676,10 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C35" s="17">
         <v>0.83792357251756999</v>
@@ -5810,10 +5804,10 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C36" s="17">
         <v>7.0451462179722997</v>
@@ -5938,10 +5932,10 @@
     </row>
     <row r="37" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" s="17">
         <v>6.4974182444064397</v>
@@ -6066,10 +6060,10 @@
     </row>
     <row r="38" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="21">
         <v>3.7050953808170202</v>
@@ -6194,10 +6188,10 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="24">
         <v>0.79999999999979998</v>
@@ -6322,10 +6316,10 @@
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C40" s="17">
         <v>2.34968060447873</v>
@@ -6450,10 +6444,10 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C41" s="24">
         <v>3.7201234582724001</v>
@@ -6578,13 +6572,13 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="24">
         <v>-1.1102230250000001E-14</v>
@@ -6706,10 +6700,10 @@
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" s="17">
         <v>4.0347317646422596</v>
@@ -6834,10 +6828,10 @@
     </row>
     <row r="44" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C44" s="17">
         <v>7.0745419887798198</v>
@@ -6962,10 +6956,10 @@
     </row>
     <row r="45" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C45" s="21">
         <v>2.5439164242669499</v>
@@ -7090,10 +7084,10 @@
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C46" s="17">
         <v>8.9761369103815696</v>
@@ -7218,10 +7212,10 @@
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C47" s="17">
         <v>-0.60292750102280002</v>
@@ -7346,10 +7340,10 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C48" s="24">
         <v>0.69244423680597</v>
@@ -7474,10 +7468,10 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C49" s="17">
         <v>-1.0900000000000001</v>
@@ -7602,10 +7596,10 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C50" s="17">
         <v>5.6959486562375101</v>
@@ -7730,10 +7724,10 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" s="14">
         <v>3.5950378007745698</v>
@@ -7858,10 +7852,10 @@
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C52" s="17">
         <v>4.3240615232113004</v>
@@ -7986,10 +7980,10 @@
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C53" s="17">
         <v>4.5797155117026396</v>
@@ -8114,43 +8108,43 @@
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N54" s="17">
         <v>2.75841885125987</v>
@@ -8242,10 +8236,10 @@
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C55" s="17">
         <v>9.3103527040231207</v>
@@ -8370,10 +8364,10 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C56" s="17">
         <v>-1.3084587105754999</v>
@@ -8498,13 +8492,13 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D57" s="17">
         <v>-0.55202975792999998</v>
@@ -8626,10 +8620,10 @@
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" s="17">
         <v>-0.67563815073629996</v>
@@ -8754,10 +8748,10 @@
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C59" s="17">
         <v>1.61080331010983</v>
@@ -8882,10 +8876,10 @@
     </row>
     <row r="60" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C60" s="14">
         <v>5.8972437547949204</v>
@@ -9011,7 +9005,7 @@
     <row r="61" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="19"/>
       <c r="B61" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C61" s="21">
         <v>2.0024849660628101</v>
@@ -9137,7 +9131,7 @@
     <row r="62" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="27"/>
       <c r="B62" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C62" s="29">
         <v>1.63617455121067</v>
@@ -9263,7 +9257,7 @@
     <row r="63" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="27"/>
       <c r="B63" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="32">
         <v>3.49378380225318</v>
@@ -9389,7 +9383,7 @@
     <row r="64" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C64" s="29">
         <v>0.64015926279321</v>
@@ -9515,7 +9509,7 @@
     <row r="65" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C65" s="36">
         <v>6.6213872987391902</v>
@@ -9641,7 +9635,7 @@
     <row r="66" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C66" s="39">
         <v>3.4070407272977699</v>
@@ -9767,7 +9761,7 @@
     <row r="67" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C67" s="42">
         <v>2.5628862630534699</v>
@@ -9893,7 +9887,7 @@
     <row r="68" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C68" s="36">
         <v>2.8734324475509401</v>
@@ -10019,7 +10013,7 @@
     <row r="69" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C69" s="36">
         <v>1.9393753164187499</v>
@@ -10145,7 +10139,7 @@
     <row r="70" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C70" s="36">
         <v>-2.9542974928607002</v>
@@ -10271,7 +10265,7 @@
     <row r="71" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C71" s="36">
         <v>2.0024849660628101</v>
@@ -10397,7 +10391,7 @@
     <row r="72" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C72" s="36">
         <v>2.9917478380973002</v>
@@ -10523,7 +10517,7 @@
     <row r="73" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73" s="36">
         <v>0.11578169401257001</v>
@@ -10649,7 +10643,7 @@
     <row r="74" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C74" s="36">
         <v>2.6588605657369202</v>
@@ -10775,7 +10769,7 @@
     <row r="75" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C75" s="39">
         <v>-2.4147275033904001</v>
@@ -10901,7 +10895,7 @@
     <row r="76" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C76" s="42">
         <v>8.3853374206842002</v>
@@ -11027,7 +11021,7 @@
     <row r="77" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C77" s="36">
         <v>-2.1359082904693998</v>
@@ -11153,7 +11147,7 @@
     <row r="78" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C78" s="36">
         <v>2.68971397244652</v>
@@ -11279,7 +11273,7 @@
     <row r="79" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C79" s="39">
         <v>3.0417951094799198</v>
@@ -11405,7 +11399,7 @@
     <row r="80" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C80" s="42">
         <v>1.6081279450301</v>
@@ -11531,7 +11525,7 @@
     <row r="81" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C81" s="36">
         <v>11.4476181463048</v>
@@ -11657,7 +11651,7 @@
     <row r="82" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C82" s="36">
         <v>1.64559981057723</v>
@@ -11783,7 +11777,7 @@
     <row r="83" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C83" s="39">
         <v>2.9989898353306002</v>
@@ -11909,7 +11903,7 @@
     <row r="84" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C84" s="42">
         <v>1.0248953995075101</v>
@@ -12035,7 +12029,7 @@
     <row r="85" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C85" s="36">
         <v>10.3577739013814</v>
@@ -12161,7 +12155,7 @@
     <row r="86" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C86" s="36">
         <v>2.04778071871376</v>
@@ -12287,7 +12281,7 @@
     <row r="87" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C87" s="36">
         <v>7.0822580564647</v>
@@ -12413,7 +12407,7 @@
     <row r="88" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C88" s="36">
         <v>1.1749856850382201</v>
@@ -12539,7 +12533,7 @@
     <row r="89" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C89" s="36">
         <v>2.5178679256766099</v>
@@ -12665,7 +12659,7 @@
     <row r="90" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C90" s="39">
         <v>3.1695302623726702</v>
@@ -12791,7 +12785,7 @@
     <row r="91" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C91" s="42">
         <v>1.3884461710472</v>
@@ -12917,7 +12911,7 @@
     <row r="92" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C92" s="36">
         <v>5.0532697265762598</v>
@@ -13043,7 +13037,7 @@
     <row r="93" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C93" s="36">
         <v>6.3019212133220899</v>
@@ -13169,7 +13163,7 @@
     <row r="94" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C94" s="36">
         <v>4.0330963763297403</v>
@@ -13295,7 +13289,7 @@
     <row r="95" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C95" s="36">
         <v>3.72224862858056</v>
@@ -13421,7 +13415,7 @@
     <row r="96" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C96" s="39">
         <v>3.86145943095074</v>
@@ -13547,7 +13541,7 @@
     <row r="97" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C97" s="42">
         <v>1.61127266935296</v>
@@ -13673,7 +13667,7 @@
     <row r="98" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C98" s="39">
         <v>8.6619694352368501</v>
@@ -13842,7 +13836,7 @@
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C100" s="47"/>
       <c r="D100" s="47"/>
@@ -13887,7 +13881,7 @@
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C101" s="47"/>
       <c r="D101" s="47"/>
@@ -13932,7 +13926,7 @@
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C102" s="47"/>
       <c r="D102" s="47"/>
@@ -13977,7 +13971,7 @@
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C103" s="47"/>
       <c r="D103" s="47"/>
@@ -14022,7 +14016,7 @@
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C104" s="47"/>
       <c r="D104" s="47"/>
@@ -14067,7 +14061,7 @@
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C105" s="47"/>
       <c r="D105" s="47"/>
@@ -14154,7 +14148,7 @@
     </row>
     <row r="107" spans="1:42" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C107" s="47"/>
       <c r="D107" s="47"/>
@@ -14242,7 +14236,7 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C109" s="47"/>
       <c r="D109" s="47"/>
@@ -14287,7 +14281,7 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C110" s="47"/>
       <c r="D110" s="47"/>
@@ -14375,7 +14369,7 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C112" s="47"/>
       <c r="D112" s="47"/>
@@ -14420,7 +14414,7 @@
     </row>
     <row r="113" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C113" s="47"/>
       <c r="D113" s="47"/>
@@ -14507,11 +14501,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{6CDD7C92-F912-4C6F-806B-6B285845EC88}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2B989004-47CA-40EE-8E51-5CD376F9E828}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{8CAC8D57-F72D-49C3-9103-730456210F83}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{32803B52-3827-475A-9B9F-0F36F4F6CB87}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{CF9D340F-D70B-461C-81BC-8A7D21E209F4}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{DB9791A2-5056-4FB9-B016-254390626EDE}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1DB0D07C-338C-4E01-9858-1E17D1471F4E}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{0A4B028A-DE17-4AD0-A04F-28CCB61B9043}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{37563969-989B-4E74-9915-51FA193FE6C9}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{017DF58A-32F5-44D7-9DC4-6183DAF6B222}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab02.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81295DBF-A510-4D0C-B3D0-035B8ADA9577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{629C5BB9-FE8E-4E8D-AAEC-E750ACB517A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{9B59B402-16F7-4FCF-B178-F42790539AA3}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{BAFC43D4-F42F-4EDD-A055-7D616E99A510}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="199">
   <si>
     <t>Tableau 2 : Taux de croissance annuel du PIB réel, 1990-2028</t>
   </si>
@@ -621,16 +621,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D609AC0-D880-4969-911C-14B1BAA68FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D55A4E8-F624-4765-B951-7A81788FAAC9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14236,7 +14239,7 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C109" s="47"/>
       <c r="D109" s="47"/>
@@ -14281,7 +14284,7 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C110" s="47"/>
       <c r="D110" s="47"/>
@@ -14325,7 +14328,9 @@
       <c r="AP110" s="47"/>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="C111" s="47"/>
       <c r="D111" s="47"/>
       <c r="E111" s="47"/>
@@ -14369,7 +14374,7 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C112" s="47"/>
       <c r="D112" s="47"/>
@@ -14414,7 +14419,7 @@
     </row>
     <row r="113" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C113" s="47"/>
       <c r="D113" s="47"/>
@@ -14501,13 +14506,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{DB9791A2-5056-4FB9-B016-254390626EDE}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1DB0D07C-338C-4E01-9858-1E17D1471F4E}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{0A4B028A-DE17-4AD0-A04F-28CCB61B9043}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{37563969-989B-4E74-9915-51FA193FE6C9}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{017DF58A-32F5-44D7-9DC4-6183DAF6B222}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{25EA67BD-4A82-499E-96E6-6CDEE03B925A}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{89824126-F41E-469C-85E2-ED5D86FCCFA1}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{BED2B517-694C-4CBE-925B-63A6CE509916}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{EDE2DF67-86FC-4FF5-AD27-2030FBB3D298}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{4290AC42-7B6C-40A3-8363-611D5E0016FB}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{5A05F3E5-9909-46DF-9878-5324203ED298}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>